--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15270" windowHeight="14000"/>
+    <workbookView windowWidth="23260" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="杂项表" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>##var#column</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>道法,术法,遁法</t>
+  </si>
+  <si>
+    <t>AttrTypeList</t>
+  </si>
+  <si>
+    <t>(list#sep=,),EAttrType</t>
+  </si>
+  <si>
+    <t>属性类型列表</t>
+  </si>
+  <si>
+    <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,法身,法身成长</t>
   </si>
 </sst>
 </file>
@@ -999,18 +1011,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="13.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="106.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1038,6 +1050,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23260" windowHeight="14000"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="杂项表" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>属性类型列表</t>
   </si>
   <si>
-    <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,法身,法身成长</t>
+    <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,灵抗,灵抗成长</t>
   </si>
 </sst>
 </file>
@@ -1014,14 +1014,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.8303571428571" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="13.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
     <col min="4" max="4" width="106.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -59,7 +59,7 @@
     <t>属性类型列表</t>
   </si>
   <si>
-    <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,灵抗,灵抗成长</t>
+    <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,灵抗,灵抗成长,身法</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1022,7 +1022,7 @@
     <col min="1" max="1" width="13.8303571428571" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
-    <col min="4" max="4" width="106.75" customWidth="1"/>
+    <col min="4" max="4" width="113.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>##var#column</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>最大生命,生命成长,最大灵气,灵气成长,速度,速度成长,力量,力量成长,体魄,体魄成长,神识,神识成长,灵抗,灵抗成长,身法</t>
+  </si>
+  <si>
+    <t>MinHit</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.8303571428571" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1064,6 +1073,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>##var#column</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>InitRoleList</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>101,102</t>
   </si>
 </sst>
 </file>
@@ -688,17 +697,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,18 +1032,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.8303571428571" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
-    <col min="4" max="4" width="113.6875" customWidth="1"/>
+    <col min="4" max="4" width="113.6875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1046,7 +1058,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1055,7 +1067,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1069,7 +1081,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1080,8 +1092,19 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -74,7 +74,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>101,102</t>
+    <t>101,102,103,104</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/新导表工具/DataTables/Datas/杂项表.xlsx
+++ b/新导表工具/DataTables/Datas/杂项表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="杂项表" sheetId="3" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>101,102,103,104</t>
+    <t>101,102,103</t>
   </si>
 </sst>
 </file>
@@ -1035,15 +1035,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.8303571428571" customWidth="1"/>
+    <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
-    <col min="4" max="4" width="113.6875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="113.691666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
